--- a/excel/por manual/local/elSalvador.xlsx
+++ b/excel/por manual/local/elSalvador.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HUMR</t>
+          <t>NO_CLASIFICADO</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>FILE</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GRP</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
